--- a/kjzkcz4.1.xlsx
+++ b/kjzkcz4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\Spring21\4320git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9822165-7F85-465F-A24A-05A8186B775E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E6BD7-38BA-4846-8D41-CCB45E7FE6BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69DC14EE-9E24-452A-95F6-25623895C2FE}"/>
   </bookViews>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Ethical Quandry: Selling Personal Info</t>
   </si>
   <si>
-    <t>User Data Confidentiality</t>
-  </si>
-  <si>
-    <t>User Attitude</t>
-  </si>
-  <si>
     <t>Appropriate Collection</t>
   </si>
   <si>
@@ -54,12 +48,6 @@
     <t>Transparency (does the user know their data is being collected)</t>
   </si>
   <si>
-    <t>Negative Impact</t>
-  </si>
-  <si>
-    <t>Positive Impact</t>
-  </si>
-  <si>
     <t>Necessary for User Experience</t>
   </si>
   <si>
@@ -72,10 +60,19 @@
     <t>information systems disrupted</t>
   </si>
   <si>
-    <t>STS applied application</t>
-  </si>
-  <si>
     <t>Kevin Zeng kjzkcz</t>
+  </si>
+  <si>
+    <t>Company Service</t>
+  </si>
+  <si>
+    <t>Use of the Data</t>
+  </si>
+  <si>
+    <t>Negative User Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Data Confidentiality Violation </t>
   </si>
 </sst>
 </file>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543E69FA-6CE6-40E8-A89B-F6A8FC3E4C52}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,105 +441,87 @@
     <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
